--- a/templates/AutomationOrg/RSTK-9519-Disassembly Work Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9519-Disassembly Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C89DB6-4ADC-4739-B1DE-D84ABEE1C631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FCD04-CFAE-4A09-A382-46F4DFC8F81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Disassembly WO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Component Item</t>
   </si>
   <si>
-    <t>MS-Disassembly (NO Track)</t>
-  </si>
-  <si>
-    <t>MS-serial and lot tracked (mfg lot and serial)</t>
-  </si>
-  <si>
     <t>Derived Component Item</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>Lot Exp Date</t>
   </si>
   <si>
-    <t>Ms-child2 (Lot track)</t>
-  </si>
-  <si>
     <t>Ms-child3 (Serial item)</t>
   </si>
   <si>
@@ -125,22 +116,7 @@
     <t>Pro-child4 (NO Track)</t>
   </si>
   <si>
-    <t>Component Per</t>
-  </si>
-  <si>
-    <t>Pro-child5 (NO Track)</t>
-  </si>
-  <si>
-    <t>Fixed Qty</t>
-  </si>
-  <si>
     <t>Add consumable components?</t>
-  </si>
-  <si>
-    <t>Mayur Suryawanshi</t>
-  </si>
-  <si>
-    <t>Pro-Disassembley (Lot and serial track)</t>
   </si>
   <si>
     <t>Pro-Disassembley Serial (Serial track)</t>
@@ -514,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,18 +515,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -572,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AE76E0-FB9A-4E01-B002-1F029404FF4C}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:XFD8"/>
+      <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,39 +573,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -638,27 +614,18 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44966</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -667,132 +634,20 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44966</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -802,10 +657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A55D77-3A07-4BB8-BFD8-EAD99132AF4E}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,158 +683,38 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1E-3</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1E-3</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
         <v>1</v>
       </c>
     </row>
